--- a/20 開発資料/02.画面設計/画面レイアウト(09_検索 会場手配一覧).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(09_検索 会場手配一覧).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3.3_0" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="152">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -559,13 +559,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>区分</t>
-    <rPh sb="0" eb="2">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
@@ -672,9 +665,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NewKaijoList</t>
-  </si>
-  <si>
     <t>BU</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -711,10 +701,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>REQ_STATUS_TEHAI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>TBL_KAIJO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -731,10 +717,6 @@
   </si>
   <si>
     <t>TO_DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規手配依頼/変更依頼/取消依頼/事後登録</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -858,6 +840,13 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KaijoList</t>
   </si>
 </sst>
 </file>
@@ -1427,170 +1416,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,36 +1452,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1653,6 +1468,180 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1671,21 +1660,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,60 +1737,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2468,15 +2457,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>26671</xdr:colOff>
+      <xdr:colOff>43720</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>79057</xdr:rowOff>
+      <xdr:rowOff>19145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2499,8 +2488,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200026" y="1543050"/>
-          <a:ext cx="6627495" cy="4193857"/>
+          <a:off x="200025" y="1543050"/>
+          <a:ext cx="6644545" cy="4133945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2818,202 +2807,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="113" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="113" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="120" t="s">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="125"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="117" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="114" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117" t="s">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="113" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="126">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="68">
         <v>39961</v>
       </c>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="113" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="114" t="s">
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="115"/>
-      <c r="AW2" s="115"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="115"/>
-      <c r="AZ2" s="116"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="113" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="113" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="113" t="s">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="129" t="s">
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -3094,83 +3083,83 @@
       <c r="A9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="101" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="101" t="s">
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="102"/>
-      <c r="U9" s="101" t="s">
+      <c r="T9" s="85"/>
+      <c r="U9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="101" t="s">
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="101" t="s">
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="101" t="s">
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="101" t="s">
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="101" t="s">
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="101" t="s">
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="103"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="101" t="s">
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="103"/>
-      <c r="AV9" s="101" t="s">
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="61" t="s">
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
+      <c r="AY9" s="88"/>
+      <c r="AZ9" s="89"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
@@ -3198,10 +3187,10 @@
       <c r="P10" s="99"/>
       <c r="Q10" s="99"/>
       <c r="R10" s="100"/>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="97"/>
+      <c r="T10" s="92"/>
       <c r="U10" s="98" t="s">
         <v>52</v>
       </c>
@@ -3216,42 +3205,42 @@
       <c r="AB10" s="99"/>
       <c r="AC10" s="99"/>
       <c r="AD10" s="100"/>
-      <c r="AE10" s="73" t="s">
+      <c r="AE10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="73" t="s">
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="73">
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="90">
         <v>8</v>
       </c>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="73" t="s">
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="73" t="s">
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="73" t="s">
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="58" t="s">
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="60"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="129"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
@@ -3273,66 +3262,66 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="89" t="s">
+      <c r="O11" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="67" t="s">
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="72"/>
-      <c r="U11" s="89" t="s">
+      <c r="T11" s="97"/>
+      <c r="U11" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="89" t="s">
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="67" t="s">
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="67" t="s">
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="67">
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="96">
         <v>10</v>
       </c>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="67" t="s">
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="67" t="s">
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="67" t="s">
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="AW11" s="68"/>
-      <c r="AX11" s="69" t="s">
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="71"/>
+      <c r="AY11" s="125"/>
+      <c r="AZ11" s="126"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
@@ -3354,68 +3343,68 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="89" t="s">
+      <c r="O12" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="67" t="s">
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="72"/>
-      <c r="U12" s="89" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="89" t="s">
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="91"/>
-      <c r="AE12" s="73" t="s">
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="67" t="s">
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="67">
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="96">
         <v>20</v>
       </c>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="67" t="s">
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="64" t="s">
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="67" t="s">
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="67" t="s">
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="69" t="s">
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="71"/>
+      <c r="AY12" s="125"/>
+      <c r="AZ12" s="126"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
@@ -3437,68 +3426,68 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="89" t="s">
+      <c r="O13" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="67" t="s">
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="72"/>
-      <c r="U13" s="89" t="s">
+      <c r="T13" s="97"/>
+      <c r="U13" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="89" t="s">
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="67" t="s">
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="67" t="s">
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="67" t="s">
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="67" t="s">
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="64" t="s">
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="67" t="s">
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="67" t="s">
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="69" t="s">
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="71"/>
+      <c r="AY13" s="125"/>
+      <c r="AZ13" s="126"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
@@ -3518,44 +3507,44 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="91"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="68"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="71"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="96"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="96"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="96"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="96"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="96"/>
+      <c r="AW14" s="107"/>
+      <c r="AX14" s="124"/>
+      <c r="AY14" s="125"/>
+      <c r="AZ14" s="126"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
@@ -3575,44 +3564,44 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="71"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="96"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="96"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="96"/>
+      <c r="AW15" s="97"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="125"/>
+      <c r="AZ15" s="126"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
@@ -3632,44 +3621,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="91"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="71"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="106"/>
+      <c r="AT16" s="96"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="96"/>
+      <c r="AW16" s="107"/>
+      <c r="AX16" s="124"/>
+      <c r="AY16" s="125"/>
+      <c r="AZ16" s="126"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
@@ -3689,44 +3678,44 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="67"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="67"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="71"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="96"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="96"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="124"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="126"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
@@ -3746,44 +3735,44 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="71"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="109"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="96"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="96"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="125"/>
+      <c r="AZ18" s="126"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
@@ -3803,44 +3792,44 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="71"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="97"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="96"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="96"/>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="124"/>
+      <c r="AY19" s="125"/>
+      <c r="AZ19" s="126"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
@@ -3860,44 +3849,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="91"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="71"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="109"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="105"/>
+      <c r="AQ20" s="105"/>
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="96"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="96"/>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="124"/>
+      <c r="AY20" s="125"/>
+      <c r="AZ20" s="126"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
@@ -3917,44 +3906,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="96"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="96"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="96"/>
+      <c r="AW21" s="107"/>
+      <c r="AX21" s="124"/>
+      <c r="AY21" s="125"/>
+      <c r="AZ21" s="126"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
@@ -3974,44 +3963,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="67"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="67"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="71"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="109"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="105"/>
+      <c r="AR22" s="105"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="107"/>
+      <c r="AV22" s="96"/>
+      <c r="AW22" s="107"/>
+      <c r="AX22" s="124"/>
+      <c r="AY22" s="125"/>
+      <c r="AZ22" s="126"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
@@ -4031,44 +4020,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="67"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="67"/>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="71"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="105"/>
+      <c r="AS23" s="106"/>
+      <c r="AT23" s="96"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="96"/>
+      <c r="AW23" s="107"/>
+      <c r="AX23" s="124"/>
+      <c r="AY23" s="125"/>
+      <c r="AZ23" s="126"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
@@ -4088,44 +4077,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="67"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="67"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="71"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="109"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="97"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="105"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="96"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="96"/>
+      <c r="AW24" s="107"/>
+      <c r="AX24" s="124"/>
+      <c r="AY24" s="125"/>
+      <c r="AZ24" s="126"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
@@ -4145,44 +4134,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="70"/>
-      <c r="AZ25" s="71"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="97"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="97"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="96"/>
+      <c r="AU25" s="107"/>
+      <c r="AV25" s="96"/>
+      <c r="AW25" s="107"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="125"/>
+      <c r="AZ25" s="126"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
@@ -4202,44 +4191,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="67"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="67"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="70"/>
-      <c r="AZ26" s="71"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="109"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="96"/>
+      <c r="AL26" s="97"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="106"/>
+      <c r="AT26" s="96"/>
+      <c r="AU26" s="107"/>
+      <c r="AV26" s="96"/>
+      <c r="AW26" s="107"/>
+      <c r="AX26" s="124"/>
+      <c r="AY26" s="125"/>
+      <c r="AZ26" s="126"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
@@ -4259,44 +4248,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="67"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="67"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="71"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="97"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="96"/>
+      <c r="AL27" s="97"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="106"/>
+      <c r="AT27" s="96"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="96"/>
+      <c r="AW27" s="107"/>
+      <c r="AX27" s="124"/>
+      <c r="AY27" s="125"/>
+      <c r="AZ27" s="126"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
@@ -4316,44 +4305,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="67"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="67"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="70"/>
-      <c r="AZ28" s="71"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="109"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="97"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="106"/>
+      <c r="AT28" s="96"/>
+      <c r="AU28" s="107"/>
+      <c r="AV28" s="96"/>
+      <c r="AW28" s="107"/>
+      <c r="AX28" s="124"/>
+      <c r="AY28" s="125"/>
+      <c r="AZ28" s="126"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
@@ -4373,44 +4362,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="91"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="72"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="67"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="67"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="71"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="96"/>
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="96"/>
+      <c r="AL29" s="97"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="106"/>
+      <c r="AT29" s="96"/>
+      <c r="AU29" s="107"/>
+      <c r="AV29" s="96"/>
+      <c r="AW29" s="107"/>
+      <c r="AX29" s="124"/>
+      <c r="AY29" s="125"/>
+      <c r="AZ29" s="126"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="33">
@@ -4430,44 +4419,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="72"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="70"/>
-      <c r="AZ30" s="71"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="109"/>
+      <c r="AI30" s="96"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="96"/>
+      <c r="AL30" s="97"/>
+      <c r="AM30" s="104"/>
+      <c r="AN30" s="105"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="105"/>
+      <c r="AQ30" s="105"/>
+      <c r="AR30" s="105"/>
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="96"/>
+      <c r="AU30" s="107"/>
+      <c r="AV30" s="96"/>
+      <c r="AW30" s="107"/>
+      <c r="AX30" s="124"/>
+      <c r="AY30" s="125"/>
+      <c r="AZ30" s="126"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -4487,44 +4476,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="72"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="67"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="70"/>
-      <c r="AZ31" s="71"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="96"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="104"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="96"/>
+      <c r="AU31" s="107"/>
+      <c r="AV31" s="96"/>
+      <c r="AW31" s="107"/>
+      <c r="AX31" s="124"/>
+      <c r="AY31" s="125"/>
+      <c r="AZ31" s="126"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -4544,44 +4533,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="91"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="72"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="70"/>
-      <c r="AZ32" s="71"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="109"/>
+      <c r="AI32" s="96"/>
+      <c r="AJ32" s="97"/>
+      <c r="AK32" s="96"/>
+      <c r="AL32" s="97"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="96"/>
+      <c r="AU32" s="107"/>
+      <c r="AV32" s="96"/>
+      <c r="AW32" s="107"/>
+      <c r="AX32" s="124"/>
+      <c r="AY32" s="125"/>
+      <c r="AZ32" s="126"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -4601,44 +4590,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="90"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="71"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="97"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="106"/>
+      <c r="AT33" s="96"/>
+      <c r="AU33" s="107"/>
+      <c r="AV33" s="96"/>
+      <c r="AW33" s="107"/>
+      <c r="AX33" s="124"/>
+      <c r="AY33" s="125"/>
+      <c r="AZ33" s="126"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
@@ -4658,44 +4647,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="90"/>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="90"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="70"/>
-      <c r="AZ34" s="71"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="96"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="104"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="106"/>
+      <c r="AT34" s="96"/>
+      <c r="AU34" s="107"/>
+      <c r="AV34" s="96"/>
+      <c r="AW34" s="107"/>
+      <c r="AX34" s="124"/>
+      <c r="AY34" s="125"/>
+      <c r="AZ34" s="126"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
@@ -4715,44 +4704,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="91"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="93"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="68"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="68"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="70"/>
-      <c r="AZ35" s="71"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="109"/>
+      <c r="AI35" s="96"/>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" s="96"/>
+      <c r="AL35" s="97"/>
+      <c r="AM35" s="104"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="106"/>
+      <c r="AT35" s="96"/>
+      <c r="AU35" s="107"/>
+      <c r="AV35" s="96"/>
+      <c r="AW35" s="107"/>
+      <c r="AX35" s="124"/>
+      <c r="AY35" s="125"/>
+      <c r="AZ35" s="126"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="34">
@@ -4772,92 +4761,337 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="80"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="80"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="83"/>
-      <c r="AG36" s="84"/>
-      <c r="AH36" s="85"/>
-      <c r="AI36" s="81"/>
-      <c r="AJ36" s="82"/>
-      <c r="AK36" s="81"/>
-      <c r="AL36" s="82"/>
-      <c r="AM36" s="86"/>
-      <c r="AN36" s="87"/>
-      <c r="AO36" s="87"/>
-      <c r="AP36" s="87"/>
-      <c r="AQ36" s="87"/>
-      <c r="AR36" s="87"/>
-      <c r="AS36" s="88"/>
-      <c r="AT36" s="81"/>
-      <c r="AU36" s="83"/>
-      <c r="AV36" s="81"/>
-      <c r="AW36" s="83"/>
-      <c r="AX36" s="75"/>
-      <c r="AY36" s="76"/>
-      <c r="AZ36" s="77"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="114"/>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="115"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="118"/>
+      <c r="AG36" s="119"/>
+      <c r="AH36" s="120"/>
+      <c r="AI36" s="116"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="116"/>
+      <c r="AL36" s="117"/>
+      <c r="AM36" s="121"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="122"/>
+      <c r="AQ36" s="122"/>
+      <c r="AR36" s="122"/>
+      <c r="AS36" s="123"/>
+      <c r="AT36" s="116"/>
+      <c r="AU36" s="118"/>
+      <c r="AV36" s="116"/>
+      <c r="AW36" s="118"/>
+      <c r="AX36" s="110"/>
+      <c r="AY36" s="111"/>
+      <c r="AZ36" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
     <mergeCell ref="AM10:AS10"/>
     <mergeCell ref="AT10:AU10"/>
     <mergeCell ref="AK10:AL10"/>
@@ -4882,296 +5116,51 @@
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AK13:AL13"/>
     <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5187,216 +5176,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="113" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="113" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="120" t="s">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="125"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="117" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="114" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117" t="s">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="113" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="126">
-        <v>41537</v>
-      </c>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="113" t="s">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="68">
+        <v>41542</v>
+      </c>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="129" t="s">
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="113" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="113" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="113" t="s">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="129" t="s">
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
@@ -5412,7 +5401,7 @@
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="130" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="F8" s="131"/>
       <c r="G8" s="131"/>
@@ -5426,7 +5415,7 @@
       <c r="M8" s="36"/>
       <c r="N8" s="37"/>
       <c r="O8" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -7090,6 +7079,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ1:AZ1"/>
@@ -7106,13 +7102,6 @@
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7126,10 +7115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ39"/>
+  <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36:AH36"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7138,209 +7127,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="113" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="113" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="120" t="s">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="125"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="117" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="114" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117" t="s">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="113" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="126">
-        <v>41537</v>
-      </c>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="113" t="s">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="68">
+        <v>41542</v>
+      </c>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="129" t="s">
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="113" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="113" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="113" t="s">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="129" t="s">
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
@@ -7357,7 +7346,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="130" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G8" s="131"/>
       <c r="H8" s="131"/>
@@ -7371,7 +7360,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="37"/>
       <c r="P8" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
@@ -7414,91 +7403,91 @@
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="101" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="101" t="s">
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="102"/>
-      <c r="U9" s="101" t="s">
+      <c r="T9" s="85"/>
+      <c r="U9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="101" t="s">
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="101" t="s">
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="101" t="s">
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="101" t="s">
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="101" t="s">
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="101" t="s">
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="103"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="101" t="s">
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="101" t="s">
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="61" t="s">
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
+      <c r="AY9" s="88"/>
+      <c r="AZ9" s="89"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
-        <f t="shared" ref="A10:A38" si="0">ROW()-9</f>
+        <f t="shared" ref="A10:A37" si="0">ROW()-9</f>
         <v>1</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7518,58 +7507,58 @@
       <c r="P10" s="134"/>
       <c r="Q10" s="134"/>
       <c r="R10" s="135"/>
-      <c r="S10" s="67" t="s">
+      <c r="S10" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="72"/>
-      <c r="U10" s="138" t="s">
+      <c r="T10" s="97"/>
+      <c r="U10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="138" t="s">
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="73" t="s">
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="136">
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="157">
         <v>150</v>
       </c>
-      <c r="AJ10" s="137"/>
-      <c r="AK10" s="136" t="s">
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="137"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="73" t="s">
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="67" t="s">
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="141"/>
-      <c r="AY10" s="142"/>
-      <c r="AZ10" s="143"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="159"/>
+      <c r="AY10" s="160"/>
+      <c r="AZ10" s="161"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
@@ -7577,7 +7566,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -7597,58 +7586,58 @@
       <c r="P11" s="134"/>
       <c r="Q11" s="134"/>
       <c r="R11" s="135"/>
-      <c r="S11" s="67" t="s">
+      <c r="S11" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T11" s="72"/>
-      <c r="U11" s="138" t="s">
+      <c r="T11" s="97"/>
+      <c r="U11" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="138" t="s">
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="140"/>
-      <c r="AE11" s="67" t="s">
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="67">
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="96">
         <v>150</v>
       </c>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="67" t="s">
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="67" t="s">
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="67" t="s">
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="71"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="124"/>
+      <c r="AY11" s="125"/>
+      <c r="AZ11" s="126"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
@@ -7656,7 +7645,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7676,58 +7665,58 @@
       <c r="P12" s="134"/>
       <c r="Q12" s="134"/>
       <c r="R12" s="135"/>
-      <c r="S12" s="67" t="s">
+      <c r="S12" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T12" s="72"/>
-      <c r="U12" s="138" t="s">
+      <c r="T12" s="97"/>
+      <c r="U12" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="138" t="s">
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="67" t="s">
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="138"/>
+      <c r="AE12" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="67">
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="96">
         <v>40</v>
       </c>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="67" t="s">
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="67" t="s">
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="104"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="67" t="s">
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="71"/>
+      <c r="AW12" s="97"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="125"/>
+      <c r="AZ12" s="126"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
@@ -7735,7 +7724,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -7755,58 +7744,58 @@
       <c r="P13" s="134"/>
       <c r="Q13" s="134"/>
       <c r="R13" s="135"/>
-      <c r="S13" s="67" t="s">
+      <c r="S13" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="72"/>
-      <c r="U13" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="140"/>
-      <c r="Z13" s="138" t="s">
+      <c r="T13" s="97"/>
+      <c r="U13" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="67" t="s">
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="67">
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="96">
         <v>14</v>
       </c>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="67" t="s">
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="67" t="s">
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="71"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="124"/>
+      <c r="AY13" s="125"/>
+      <c r="AZ13" s="126"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
@@ -7814,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -7834,58 +7823,58 @@
       <c r="P14" s="134"/>
       <c r="Q14" s="134"/>
       <c r="R14" s="135"/>
-      <c r="S14" s="67" t="s">
+      <c r="S14" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T14" s="72"/>
-      <c r="U14" s="138" t="s">
+      <c r="T14" s="97"/>
+      <c r="U14" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="140"/>
-      <c r="Z14" s="138" t="s">
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="67" t="s">
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="67">
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="96">
         <v>80</v>
       </c>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="67" t="s">
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="67" t="s">
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="67" t="s">
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="71"/>
+      <c r="AW14" s="97"/>
+      <c r="AX14" s="124"/>
+      <c r="AY14" s="125"/>
+      <c r="AZ14" s="126"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
@@ -7893,7 +7882,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -7913,58 +7902,58 @@
       <c r="P15" s="134"/>
       <c r="Q15" s="134"/>
       <c r="R15" s="135"/>
-      <c r="S15" s="67" t="s">
+      <c r="S15" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T15" s="72"/>
-      <c r="U15" s="138" t="s">
+      <c r="T15" s="97"/>
+      <c r="U15" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="138" t="s">
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="67" t="s">
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="67">
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="96">
         <v>9</v>
       </c>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="67">
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="96">
         <v>4</v>
       </c>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="67" t="s">
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="67" t="s">
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="71"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="125"/>
+      <c r="AZ15" s="126"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
@@ -7972,7 +7961,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -7992,58 +7981,58 @@
       <c r="P16" s="134"/>
       <c r="Q16" s="134"/>
       <c r="R16" s="135"/>
-      <c r="S16" s="67" t="s">
+      <c r="S16" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T16" s="72"/>
-      <c r="U16" s="138" t="s">
+      <c r="T16" s="97"/>
+      <c r="U16" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="138" t="s">
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="67" t="s">
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="67">
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="96">
         <v>9</v>
       </c>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="67">
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="96">
         <v>2</v>
       </c>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="67" t="s">
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="67" t="s">
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="106"/>
+      <c r="AT16" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="71"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW16" s="107"/>
+      <c r="AX16" s="124"/>
+      <c r="AY16" s="125"/>
+      <c r="AZ16" s="126"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
@@ -8051,7 +8040,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -8071,58 +8060,58 @@
       <c r="P17" s="134"/>
       <c r="Q17" s="134"/>
       <c r="R17" s="135"/>
-      <c r="S17" s="67" t="s">
+      <c r="S17" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T17" s="72"/>
-      <c r="U17" s="138" t="s">
+      <c r="T17" s="97"/>
+      <c r="U17" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="140"/>
-      <c r="Z17" s="138" t="s">
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="67" t="s">
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="67">
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="96">
         <v>9</v>
       </c>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="67">
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="96">
         <v>2</v>
       </c>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="67" t="s">
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="67" t="s">
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="71"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="124"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="126"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
@@ -8130,7 +8119,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -8150,58 +8139,58 @@
       <c r="P18" s="134"/>
       <c r="Q18" s="134"/>
       <c r="R18" s="135"/>
-      <c r="S18" s="67" t="s">
+      <c r="S18" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T18" s="72"/>
-      <c r="U18" s="138" t="s">
+      <c r="T18" s="97"/>
+      <c r="U18" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="140"/>
-      <c r="Z18" s="138" t="s">
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="67" t="s">
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="67">
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="96">
         <v>9</v>
       </c>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="67">
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="96">
         <v>4</v>
       </c>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="67" t="s">
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="67" t="s">
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="71"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="125"/>
+      <c r="AZ18" s="126"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
@@ -8209,7 +8198,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -8229,58 +8218,58 @@
       <c r="P19" s="134"/>
       <c r="Q19" s="134"/>
       <c r="R19" s="135"/>
-      <c r="S19" s="67" t="s">
+      <c r="S19" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="72"/>
-      <c r="U19" s="138" t="s">
+      <c r="T19" s="97"/>
+      <c r="U19" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="138" t="s">
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="67" t="s">
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="67">
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="96">
         <v>9</v>
       </c>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="67">
+      <c r="AH19" s="97"/>
+      <c r="AI19" s="96">
         <v>2</v>
       </c>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="67" t="s">
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="67" t="s">
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="71"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="124"/>
+      <c r="AY19" s="125"/>
+      <c r="AZ19" s="126"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
@@ -8288,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -8308,58 +8297,58 @@
       <c r="P20" s="134"/>
       <c r="Q20" s="134"/>
       <c r="R20" s="135"/>
-      <c r="S20" s="67" t="s">
+      <c r="S20" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T20" s="72"/>
-      <c r="U20" s="138" t="s">
+      <c r="T20" s="97"/>
+      <c r="U20" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="140"/>
-      <c r="Z20" s="138" t="s">
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="67" t="s">
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="67">
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="96">
         <v>9</v>
       </c>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="67">
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="96">
         <v>2</v>
       </c>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="67" t="s">
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="67" t="s">
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="105"/>
+      <c r="AQ20" s="105"/>
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="71"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="124"/>
+      <c r="AY20" s="125"/>
+      <c r="AZ20" s="126"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
@@ -8367,7 +8356,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -8382,63 +8371,63 @@
       <c r="M21" s="52"/>
       <c r="N21" s="53"/>
       <c r="O21" s="133" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P21" s="134"/>
       <c r="Q21" s="134"/>
       <c r="R21" s="135"/>
-      <c r="S21" s="67" t="s">
+      <c r="S21" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T21" s="72"/>
-      <c r="U21" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="140"/>
-      <c r="Z21" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="67" t="s">
+      <c r="T21" s="97"/>
+      <c r="U21" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="67" t="s">
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="96">
+        <v>40</v>
+      </c>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW21" s="97"/>
+      <c r="AX21" s="124"/>
+      <c r="AY21" s="125"/>
+      <c r="AZ21" s="126"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
@@ -8446,7 +8435,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -8461,63 +8450,63 @@
       <c r="M22" s="52"/>
       <c r="N22" s="53"/>
       <c r="O22" s="133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P22" s="134"/>
       <c r="Q22" s="134"/>
       <c r="R22" s="135"/>
-      <c r="S22" s="67" t="s">
+      <c r="S22" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T22" s="72"/>
-      <c r="U22" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="140"/>
-      <c r="Z22" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="140"/>
-      <c r="AE22" s="67" t="s">
+      <c r="T22" s="97"/>
+      <c r="U22" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="67" t="s">
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="96">
+        <v>80</v>
+      </c>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="105"/>
+      <c r="AR22" s="105"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="71"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW22" s="97"/>
+      <c r="AX22" s="124"/>
+      <c r="AY22" s="125"/>
+      <c r="AZ22" s="126"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
@@ -8525,7 +8514,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
@@ -8545,58 +8534,58 @@
       <c r="P23" s="134"/>
       <c r="Q23" s="134"/>
       <c r="R23" s="135"/>
-      <c r="S23" s="67" t="s">
+      <c r="S23" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T23" s="72"/>
-      <c r="U23" s="138" t="s">
+      <c r="T23" s="97"/>
+      <c r="U23" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="138" t="s">
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="67" t="s">
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="67">
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="96">
         <v>10</v>
       </c>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="67" t="s">
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="67" t="s">
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="105"/>
+      <c r="AS23" s="106"/>
+      <c r="AT23" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="71"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW23" s="107"/>
+      <c r="AX23" s="124"/>
+      <c r="AY23" s="125"/>
+      <c r="AZ23" s="126"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
@@ -8619,63 +8608,63 @@
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
       <c r="O24" s="133" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P24" s="134"/>
       <c r="Q24" s="134"/>
       <c r="R24" s="135"/>
-      <c r="S24" s="67" t="s">
+      <c r="S24" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="T24" s="72"/>
-      <c r="U24" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="140"/>
-      <c r="Z24" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="67" t="s">
+      <c r="T24" s="97"/>
+      <c r="U24" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="67" t="s">
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="67" t="s">
+      <c r="AH24" s="97"/>
+      <c r="AI24" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="67" t="s">
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="67" t="s">
+      <c r="AL24" s="97"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="105"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="67" t="s">
+      <c r="AU24" s="97"/>
+      <c r="AV24" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="152"/>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="71"/>
+      <c r="AW24" s="97"/>
+      <c r="AX24" s="148"/>
+      <c r="AY24" s="125"/>
+      <c r="AZ24" s="126"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
@@ -8683,7 +8672,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -8701,8 +8690,8 @@
       <c r="P25" s="134"/>
       <c r="Q25" s="134"/>
       <c r="R25" s="135"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="72"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="133"/>
       <c r="V25" s="134"/>
       <c r="W25" s="134"/>
@@ -8713,28 +8702,28 @@
       <c r="AB25" s="134"/>
       <c r="AC25" s="134"/>
       <c r="AD25" s="135"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="70"/>
-      <c r="AZ25" s="71"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="97"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="97"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="96"/>
+      <c r="AU25" s="97"/>
+      <c r="AV25" s="96"/>
+      <c r="AW25" s="97"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="125"/>
+      <c r="AZ25" s="126"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
@@ -8742,7 +8731,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -8757,63 +8746,63 @@
       <c r="M26" s="44"/>
       <c r="N26" s="45"/>
       <c r="O26" s="133" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P26" s="134"/>
       <c r="Q26" s="134"/>
       <c r="R26" s="135"/>
-      <c r="S26" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="T26" s="72"/>
-      <c r="U26" s="138" t="s">
+      <c r="S26" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" s="97"/>
+      <c r="U26" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="140"/>
-      <c r="Z26" s="138" t="s">
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="67" t="s">
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="67" t="s">
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="67" t="s">
+      <c r="AL26" s="97"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="106"/>
+      <c r="AT26" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="67" t="s">
+      <c r="AU26" s="97"/>
+      <c r="AV26" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="70"/>
-      <c r="AZ26" s="71"/>
+      <c r="AW26" s="97"/>
+      <c r="AX26" s="124"/>
+      <c r="AY26" s="125"/>
+      <c r="AZ26" s="126"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
@@ -8821,7 +8810,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -8836,63 +8825,63 @@
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
       <c r="O27" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P27" s="134"/>
       <c r="Q27" s="134"/>
       <c r="R27" s="135"/>
-      <c r="S27" s="67" t="s">
+      <c r="S27" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="T27" s="72"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="133" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V27" s="134"/>
       <c r="W27" s="134"/>
       <c r="X27" s="134"/>
       <c r="Y27" s="135"/>
       <c r="Z27" s="133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA27" s="134"/>
       <c r="AB27" s="134"/>
       <c r="AC27" s="134"/>
       <c r="AD27" s="135"/>
-      <c r="AE27" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="67" t="s">
+      <c r="AE27" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="67">
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH27" s="97"/>
+      <c r="AI27" s="96">
         <v>40</v>
       </c>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="67" t="s">
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="67" t="s">
+      <c r="AL27" s="97"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="106"/>
+      <c r="AT27" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="67" t="s">
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="71"/>
+      <c r="AW27" s="97"/>
+      <c r="AX27" s="124"/>
+      <c r="AY27" s="125"/>
+      <c r="AZ27" s="126"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
@@ -8900,7 +8889,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -8915,17 +8904,17 @@
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
       <c r="O28" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P28" s="134"/>
       <c r="Q28" s="134"/>
       <c r="R28" s="135"/>
-      <c r="S28" s="67" t="s">
+      <c r="S28" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="T28" s="72"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V28" s="134"/>
       <c r="W28" s="134"/>
@@ -8938,40 +8927,40 @@
       <c r="AB28" s="134"/>
       <c r="AC28" s="134"/>
       <c r="AD28" s="135"/>
-      <c r="AE28" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="67">
-        <v>40</v>
-      </c>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="67" t="s">
+      <c r="AE28" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="96">
+        <v>80</v>
+      </c>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="67" t="s">
+      <c r="AL28" s="97"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="106"/>
+      <c r="AT28" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="67" t="s">
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="70"/>
-      <c r="AZ28" s="71"/>
+      <c r="AW28" s="97"/>
+      <c r="AX28" s="124"/>
+      <c r="AY28" s="125"/>
+      <c r="AZ28" s="126"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
@@ -8979,7 +8968,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -8994,17 +8983,17 @@
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
       <c r="O29" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P29" s="134"/>
       <c r="Q29" s="134"/>
       <c r="R29" s="135"/>
-      <c r="S29" s="67" t="s">
+      <c r="S29" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="72"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V29" s="134"/>
       <c r="W29" s="134"/>
@@ -9017,40 +9006,40 @@
       <c r="AB29" s="134"/>
       <c r="AC29" s="134"/>
       <c r="AD29" s="135"/>
-      <c r="AE29" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="67">
+      <c r="AE29" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="96">
         <v>40</v>
       </c>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="67" t="s">
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL29" s="72"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="67" t="s">
+      <c r="AL29" s="97"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="106"/>
+      <c r="AT29" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU29" s="72"/>
-      <c r="AV29" s="67" t="s">
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW29" s="72"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="71"/>
+      <c r="AW29" s="97"/>
+      <c r="AX29" s="124"/>
+      <c r="AY29" s="125"/>
+      <c r="AZ29" s="126"/>
     </row>
     <row r="30" spans="1:52" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="46">
@@ -9058,7 +9047,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
@@ -9073,22 +9062,22 @@
       <c r="M30" s="48"/>
       <c r="N30" s="49"/>
       <c r="O30" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P30" s="134"/>
       <c r="Q30" s="134"/>
       <c r="R30" s="135"/>
-      <c r="S30" s="144" t="s">
+      <c r="S30" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="T30" s="145"/>
-      <c r="U30" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="148"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="156"/>
       <c r="Z30" s="133" t="s">
         <v>83</v>
       </c>
@@ -9096,42 +9085,42 @@
       <c r="AB30" s="134"/>
       <c r="AC30" s="134"/>
       <c r="AD30" s="135"/>
-      <c r="AE30" s="144" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="67">
+      <c r="AE30" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="96">
         <v>8</v>
       </c>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="144" t="s">
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="AL30" s="145"/>
-      <c r="AM30" s="159" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN30" s="160"/>
-      <c r="AO30" s="160"/>
-      <c r="AP30" s="160"/>
-      <c r="AQ30" s="160"/>
-      <c r="AR30" s="160"/>
-      <c r="AS30" s="161"/>
-      <c r="AT30" s="144" t="s">
+      <c r="AL30" s="150"/>
+      <c r="AM30" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN30" s="152"/>
+      <c r="AO30" s="152"/>
+      <c r="AP30" s="152"/>
+      <c r="AQ30" s="152"/>
+      <c r="AR30" s="152"/>
+      <c r="AS30" s="153"/>
+      <c r="AT30" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="AU30" s="145"/>
-      <c r="AV30" s="144" t="s">
+      <c r="AU30" s="150"/>
+      <c r="AV30" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="AW30" s="145"/>
-      <c r="AX30" s="156"/>
-      <c r="AY30" s="157"/>
-      <c r="AZ30" s="158"/>
+      <c r="AW30" s="150"/>
+      <c r="AX30" s="145"/>
+      <c r="AY30" s="146"/>
+      <c r="AZ30" s="147"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -9154,17 +9143,17 @@
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
       <c r="O31" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P31" s="134"/>
       <c r="Q31" s="134"/>
       <c r="R31" s="135"/>
-      <c r="S31" s="67" t="s">
+      <c r="S31" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="72"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V31" s="134"/>
       <c r="W31" s="134"/>
@@ -9177,40 +9166,40 @@
       <c r="AB31" s="134"/>
       <c r="AC31" s="134"/>
       <c r="AD31" s="135"/>
-      <c r="AE31" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="67">
+      <c r="AE31" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="96">
         <v>80</v>
       </c>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="67" t="s">
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL31" s="72"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="67" t="s">
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="104"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="67" t="s">
+      <c r="AU31" s="97"/>
+      <c r="AV31" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="70"/>
-      <c r="AZ31" s="71"/>
+      <c r="AW31" s="97"/>
+      <c r="AX31" s="124"/>
+      <c r="AY31" s="125"/>
+      <c r="AZ31" s="126"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -9218,7 +9207,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -9233,154 +9222,152 @@
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
       <c r="O32" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P32" s="134"/>
       <c r="Q32" s="134"/>
       <c r="R32" s="135"/>
-      <c r="S32" s="67" t="s">
+      <c r="S32" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="72"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="133" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V32" s="134"/>
       <c r="W32" s="134"/>
       <c r="X32" s="134"/>
       <c r="Y32" s="135"/>
       <c r="Z32" s="133" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AA32" s="134"/>
       <c r="AB32" s="134"/>
       <c r="AC32" s="134"/>
       <c r="AD32" s="135"/>
-      <c r="AE32" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="67" t="s">
+      <c r="AE32" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="67">
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="96">
         <v>14</v>
       </c>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="67" t="s">
+      <c r="AJ32" s="97"/>
+      <c r="AK32" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL32" s="72"/>
-      <c r="AM32" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="67" t="s">
+      <c r="AL32" s="97"/>
+      <c r="AM32" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="67" t="s">
+      <c r="AU32" s="97"/>
+      <c r="AV32" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="152"/>
-      <c r="AY32" s="70"/>
-      <c r="AZ32" s="71"/>
-    </row>
-    <row r="33" spans="1:52" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AW32" s="97"/>
+      <c r="AX32" s="148"/>
+      <c r="AY32" s="125"/>
+      <c r="AZ32" s="126"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
+      <c r="B33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P33" s="134"/>
       <c r="Q33" s="134"/>
       <c r="R33" s="135"/>
-      <c r="S33" s="67" t="s">
+      <c r="S33" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="T33" s="72"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V33" s="134"/>
       <c r="W33" s="134"/>
       <c r="X33" s="134"/>
       <c r="Y33" s="135"/>
       <c r="Z33" s="133" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA33" s="134"/>
       <c r="AB33" s="134"/>
       <c r="AC33" s="134"/>
       <c r="AD33" s="135"/>
-      <c r="AE33" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="67" t="s">
+      <c r="AE33" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="96">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="67" t="s">
+      <c r="AL33" s="97"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="106"/>
+      <c r="AT33" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="67" t="s">
+      <c r="AU33" s="97"/>
+      <c r="AV33" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="71"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="AW33" s="97"/>
+      <c r="AX33" s="124"/>
+      <c r="AY33" s="125"/>
+      <c r="AZ33" s="126"/>
+    </row>
+    <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -9395,175 +9382,175 @@
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
       <c r="O34" s="133" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P34" s="134"/>
       <c r="Q34" s="134"/>
       <c r="R34" s="135"/>
-      <c r="S34" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" s="72"/>
-      <c r="U34" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="V34" s="134"/>
-      <c r="W34" s="134"/>
-      <c r="X34" s="134"/>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="134"/>
-      <c r="AC34" s="134"/>
-      <c r="AD34" s="135"/>
-      <c r="AE34" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="67">
-        <v>10</v>
-      </c>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="67" t="s">
+      <c r="S34" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="T34" s="97"/>
+      <c r="U34" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="67" t="s">
+      <c r="V34" s="137"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="138"/>
+      <c r="Z34" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="70"/>
-      <c r="AZ34" s="71"/>
-    </row>
-    <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="104"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="106"/>
+      <c r="AT34" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU34" s="97"/>
+      <c r="AV34" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW34" s="97"/>
+      <c r="AX34" s="124"/>
+      <c r="AY34" s="125"/>
+      <c r="AZ34" s="126"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="15"/>
+      <c r="B35" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
       <c r="O35" s="133" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P35" s="134"/>
       <c r="Q35" s="134"/>
       <c r="R35" s="135"/>
-      <c r="S35" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="T35" s="72"/>
-      <c r="U35" s="138" t="s">
+      <c r="S35" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="97"/>
+      <c r="U35" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="V35" s="134"/>
+      <c r="W35" s="134"/>
+      <c r="X35" s="134"/>
+      <c r="Y35" s="135"/>
+      <c r="Z35" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA35" s="134"/>
+      <c r="AB35" s="134"/>
+      <c r="AC35" s="134"/>
+      <c r="AD35" s="135"/>
+      <c r="AE35" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="96">
+        <v>14</v>
+      </c>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="V35" s="139"/>
-      <c r="W35" s="139"/>
-      <c r="X35" s="139"/>
-      <c r="Y35" s="140"/>
-      <c r="Z35" s="138" t="s">
+      <c r="AL35" s="97"/>
+      <c r="AM35" s="104"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="106"/>
+      <c r="AT35" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AA35" s="139"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="139"/>
-      <c r="AD35" s="140"/>
-      <c r="AE35" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="67" t="s">
+      <c r="AU35" s="97"/>
+      <c r="AV35" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="70"/>
-      <c r="AZ35" s="71"/>
+      <c r="AW35" s="97"/>
+      <c r="AX35" s="124"/>
+      <c r="AY35" s="125"/>
+      <c r="AZ35" s="126"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P36" s="134"/>
       <c r="Q36" s="134"/>
       <c r="R36" s="135"/>
-      <c r="S36" s="67" t="s">
+      <c r="S36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="T36" s="72"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="133" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="V36" s="134"/>
       <c r="W36" s="134"/>
@@ -9576,254 +9563,535 @@
       <c r="AB36" s="134"/>
       <c r="AC36" s="134"/>
       <c r="AD36" s="135"/>
-      <c r="AE36" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="67" t="s">
+      <c r="AE36" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="67">
-        <v>14</v>
-      </c>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="67" t="s">
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="96">
+        <v>8</v>
+      </c>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AL36" s="72"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="65"/>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="65"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="67" t="s">
+      <c r="AL36" s="97"/>
+      <c r="AM36" s="104"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="106"/>
+      <c r="AT36" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="67" t="s">
+      <c r="AU36" s="97"/>
+      <c r="AV36" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="70"/>
-      <c r="AZ36" s="71"/>
+      <c r="AW36" s="97"/>
+      <c r="AX36" s="124"/>
+      <c r="AY36" s="125"/>
+      <c r="AZ36" s="126"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B37" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="133" t="s">
+      <c r="B37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="T37" s="97"/>
+      <c r="U37" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="72"/>
-      <c r="U37" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="133" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
-      <c r="AC37" s="134"/>
-      <c r="AD37" s="135"/>
-      <c r="AE37" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="67">
-        <v>8</v>
-      </c>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="67" t="s">
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="138"/>
+      <c r="Z37" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="138"/>
+      <c r="AE37" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AL37" s="72"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="65"/>
-      <c r="AO37" s="65"/>
-      <c r="AP37" s="65"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="67" t="s">
+      <c r="AH37" s="97"/>
+      <c r="AI37" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AU37" s="72"/>
-      <c r="AV37" s="67" t="s">
+      <c r="AJ37" s="97"/>
+      <c r="AK37" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AW37" s="72"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="71"/>
+      <c r="AL37" s="97"/>
+      <c r="AM37" s="104"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="106"/>
+      <c r="AT37" s="96"/>
+      <c r="AU37" s="107"/>
+      <c r="AV37" s="96"/>
+      <c r="AW37" s="107"/>
+      <c r="AX37" s="124"/>
+      <c r="AY37" s="125"/>
+      <c r="AZ37" s="126"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A38" s="33">
-        <f t="shared" si="0"/>
+      <c r="A38" s="34">
+        <f t="shared" ref="A38" si="1">ROW()-9</f>
         <v>29</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="T38" s="72"/>
-      <c r="U38" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="V38" s="139"/>
-      <c r="W38" s="139"/>
-      <c r="X38" s="139"/>
-      <c r="Y38" s="140"/>
-      <c r="Z38" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA38" s="139"/>
-      <c r="AB38" s="139"/>
-      <c r="AC38" s="139"/>
-      <c r="AD38" s="140"/>
-      <c r="AE38" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ38" s="72"/>
-      <c r="AK38" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL38" s="72"/>
-      <c r="AM38" s="64"/>
-      <c r="AN38" s="65"/>
-      <c r="AO38" s="65"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="67"/>
-      <c r="AU38" s="68"/>
-      <c r="AV38" s="67"/>
-      <c r="AW38" s="68"/>
-      <c r="AX38" s="69"/>
-      <c r="AY38" s="70"/>
-      <c r="AZ38" s="71"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A39" s="34">
-        <f t="shared" ref="A39" si="1">ROW()-9</f>
-        <v>30</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="149"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="150"/>
-      <c r="X39" s="150"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="150"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="81"/>
-      <c r="AF39" s="83"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="85"/>
-      <c r="AI39" s="81"/>
-      <c r="AJ39" s="82"/>
-      <c r="AK39" s="81"/>
-      <c r="AL39" s="82"/>
-      <c r="AM39" s="86"/>
-      <c r="AN39" s="87"/>
-      <c r="AO39" s="87"/>
-      <c r="AP39" s="87"/>
-      <c r="AQ39" s="87"/>
-      <c r="AR39" s="87"/>
-      <c r="AS39" s="88"/>
-      <c r="AT39" s="81"/>
-      <c r="AU39" s="83"/>
-      <c r="AV39" s="81"/>
-      <c r="AW39" s="83"/>
-      <c r="AX39" s="153"/>
-      <c r="AY39" s="154"/>
-      <c r="AZ39" s="155"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="142"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="144"/>
+      <c r="Z38" s="142"/>
+      <c r="AA38" s="143"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="143"/>
+      <c r="AD38" s="144"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="118"/>
+      <c r="AG38" s="119"/>
+      <c r="AH38" s="120"/>
+      <c r="AI38" s="116"/>
+      <c r="AJ38" s="117"/>
+      <c r="AK38" s="116"/>
+      <c r="AL38" s="117"/>
+      <c r="AM38" s="121"/>
+      <c r="AN38" s="122"/>
+      <c r="AO38" s="122"/>
+      <c r="AP38" s="122"/>
+      <c r="AQ38" s="122"/>
+      <c r="AR38" s="122"/>
+      <c r="AS38" s="123"/>
+      <c r="AT38" s="116"/>
+      <c r="AU38" s="118"/>
+      <c r="AV38" s="116"/>
+      <c r="AW38" s="118"/>
+      <c r="AX38" s="139"/>
+      <c r="AY38" s="140"/>
+      <c r="AZ38" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="396">
+  <mergeCells count="384">
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AT37:AU37"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AS37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AV38:AW38"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:Y38"/>
+    <mergeCell ref="Z38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AS38"/>
+    <mergeCell ref="AT38:AU38"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="AV37:AW37"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
     <mergeCell ref="AT18:AU18"/>
     <mergeCell ref="AV18:AW18"/>
     <mergeCell ref="AX18:AZ18"/>
@@ -9848,378 +10116,6 @@
     <mergeCell ref="Z18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AV39:AW39"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="Z39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AS39"/>
-    <mergeCell ref="AT39:AU39"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV38:AW38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AV37:AW37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:Y38"/>
-    <mergeCell ref="Z38:AD38"/>
-    <mergeCell ref="Z37:AD37"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AS38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AT38:AU38"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AS37"/>
-    <mergeCell ref="AT37:AU37"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="F8:K8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面レイアウト(09_検索 会場手配一覧).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(09_検索 会場手配一覧).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="156">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -847,6 +847,67 @@
   </si>
   <si>
     <t>KaijoList</t>
+  </si>
+  <si>
+    <t>抽出条件に従って、新着の会場手配一覧を</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「詳細」ボタンを押すと、会場手配依頼</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面へ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1241,7 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1476,198 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
@@ -1437,21 +1690,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1468,180 +1706,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1651,6 +1715,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1660,14 +1748,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1686,57 +1801,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2463,13 +2527,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>43720</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19145</xdr:rowOff>
+      <xdr:colOff>5239</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="C:\Work\TOPTOUR\Bayer\画面レイアウトGIF\KaijoList.gif"/>
+        <xdr:cNvPr id="4" name="図 3" descr="C:\Work\TOPTOUR\Bayer\画面レイアウトGIF\KaijoList.gif"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2489,7 +2553,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="200025" y="1543050"/>
-          <a:ext cx="6644545" cy="4133945"/>
+          <a:ext cx="6606064" cy="3894296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2807,202 +2871,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="64" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="64" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="126"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="81" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="81" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="68">
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="127">
         <v>39961</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="64" t="s">
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="65" t="s">
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="116"/>
+      <c r="AZ2" s="117"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="64" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="64" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="64" t="s">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="64" t="s">
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="71" t="s">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -3083,83 +3147,83 @@
       <c r="A9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="84" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="84" t="s">
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="84" t="s">
+      <c r="T9" s="103"/>
+      <c r="U9" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="84" t="s">
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="84" t="s">
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="84" t="s">
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="84" t="s">
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="84" t="s">
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="84" t="s">
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="84" t="s">
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="84" t="s">
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="87" t="s">
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="89"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="64"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
@@ -3181,66 +3245,66 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="98" t="s">
+      <c r="O10" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="90" t="s">
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="92"/>
-      <c r="U10" s="98" t="s">
+      <c r="T10" s="98"/>
+      <c r="U10" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="98" t="s">
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="90" t="s">
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="90" t="s">
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="90">
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="74">
         <v>8</v>
       </c>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="90" t="s">
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="90" t="s">
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="90" t="s">
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="127" t="s">
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="129"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="61"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
@@ -3262,66 +3326,66 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="93" t="s">
+      <c r="O11" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="96" t="s">
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="97"/>
-      <c r="U11" s="93" t="s">
+      <c r="T11" s="73"/>
+      <c r="U11" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="93" t="s">
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96" t="s">
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="96" t="s">
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="96">
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="68">
         <v>10</v>
       </c>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="96" t="s">
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="105"/>
-      <c r="AP11" s="105"/>
-      <c r="AQ11" s="105"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="96" t="s">
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="96" t="s">
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="AW11" s="107"/>
-      <c r="AX11" s="124" t="s">
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AY11" s="125"/>
-      <c r="AZ11" s="126"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="72"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
@@ -3343,68 +3407,68 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="93" t="s">
+      <c r="O12" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="96" t="s">
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="97"/>
-      <c r="U12" s="93" t="s">
+      <c r="T12" s="73"/>
+      <c r="U12" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="93" t="s">
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="90" t="s">
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="96" t="s">
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="96">
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="68">
         <v>20</v>
       </c>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="96" t="s">
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="104" t="s">
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="105"/>
-      <c r="AQ12" s="105"/>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="96" t="s">
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="96" t="s">
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="AW12" s="107"/>
-      <c r="AX12" s="124" t="s">
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="AY12" s="125"/>
-      <c r="AZ12" s="126"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="72"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
@@ -3426,68 +3490,68 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="93" t="s">
+      <c r="O13" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96" t="s">
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="97"/>
-      <c r="U13" s="93" t="s">
+      <c r="T13" s="73"/>
+      <c r="U13" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="93" t="s">
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96" t="s">
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="96" t="s">
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="96" t="s">
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="96" t="s">
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="104" t="s">
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="105"/>
-      <c r="AQ13" s="105"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="96" t="s">
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="96" t="s">
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="124" t="s">
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="AY13" s="125"/>
-      <c r="AZ13" s="126"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="72"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
@@ -3507,44 +3571,44 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="105"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="107"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="107"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="126"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="72"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
@@ -3564,44 +3628,44 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="96"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="97"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="126"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="72"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
@@ -3621,44 +3685,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="105"/>
-      <c r="AP16" s="105"/>
-      <c r="AQ16" s="105"/>
-      <c r="AR16" s="105"/>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="107"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="107"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="126"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="72"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
@@ -3678,44 +3742,44 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
-      <c r="AQ17" s="105"/>
-      <c r="AR17" s="105"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="126"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="67"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="72"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
@@ -3735,44 +3799,44 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="105"/>
-      <c r="AQ18" s="105"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="124"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="126"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="72"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
@@ -3792,44 +3856,44 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="105"/>
-      <c r="AP19" s="105"/>
-      <c r="AQ19" s="105"/>
-      <c r="AR19" s="105"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="107"/>
-      <c r="AX19" s="124"/>
-      <c r="AY19" s="125"/>
-      <c r="AZ19" s="126"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="72"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
@@ -3849,44 +3913,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
-      <c r="AQ20" s="105"/>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="96"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="124"/>
-      <c r="AY20" s="125"/>
-      <c r="AZ20" s="126"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="72"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
@@ -3906,44 +3970,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="105"/>
-      <c r="AP21" s="105"/>
-      <c r="AQ21" s="105"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="124"/>
-      <c r="AY21" s="125"/>
-      <c r="AZ21" s="126"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="67"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="71"/>
+      <c r="AZ21" s="72"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
@@ -3963,44 +4027,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="105"/>
-      <c r="AP22" s="105"/>
-      <c r="AQ22" s="105"/>
-      <c r="AR22" s="105"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="107"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="107"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="125"/>
-      <c r="AZ22" s="126"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="68"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="72"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
@@ -4020,44 +4084,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="105"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
-      <c r="AQ23" s="105"/>
-      <c r="AR23" s="105"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="96"/>
-      <c r="AW23" s="107"/>
-      <c r="AX23" s="124"/>
-      <c r="AY23" s="125"/>
-      <c r="AZ23" s="126"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="68"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="68"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="72"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
@@ -4077,44 +4141,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="105"/>
-      <c r="AO24" s="105"/>
-      <c r="AP24" s="105"/>
-      <c r="AQ24" s="105"/>
-      <c r="AR24" s="105"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="96"/>
-      <c r="AU24" s="107"/>
-      <c r="AV24" s="96"/>
-      <c r="AW24" s="107"/>
-      <c r="AX24" s="124"/>
-      <c r="AY24" s="125"/>
-      <c r="AZ24" s="126"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="71"/>
+      <c r="AZ24" s="72"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
@@ -4134,44 +4198,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="97"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="105"/>
-      <c r="AP25" s="105"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="107"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="107"/>
-      <c r="AX25" s="124"/>
-      <c r="AY25" s="125"/>
-      <c r="AZ25" s="126"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="71"/>
+      <c r="AZ25" s="72"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
@@ -4191,44 +4255,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="96"/>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="96"/>
-      <c r="AL26" s="97"/>
-      <c r="AM26" s="104"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="96"/>
-      <c r="AU26" s="107"/>
-      <c r="AV26" s="96"/>
-      <c r="AW26" s="107"/>
-      <c r="AX26" s="124"/>
-      <c r="AY26" s="125"/>
-      <c r="AZ26" s="126"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="68"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="71"/>
+      <c r="AZ26" s="72"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
@@ -4248,44 +4312,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="96"/>
-      <c r="AH27" s="97"/>
-      <c r="AI27" s="96"/>
-      <c r="AJ27" s="97"/>
-      <c r="AK27" s="96"/>
-      <c r="AL27" s="97"/>
-      <c r="AM27" s="104"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="96"/>
-      <c r="AU27" s="107"/>
-      <c r="AV27" s="96"/>
-      <c r="AW27" s="107"/>
-      <c r="AX27" s="124"/>
-      <c r="AY27" s="125"/>
-      <c r="AZ27" s="126"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="71"/>
+      <c r="AZ27" s="72"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
@@ -4305,44 +4369,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="96"/>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="104"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="105"/>
-      <c r="AQ28" s="105"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="96"/>
-      <c r="AU28" s="107"/>
-      <c r="AV28" s="96"/>
-      <c r="AW28" s="107"/>
-      <c r="AX28" s="124"/>
-      <c r="AY28" s="125"/>
-      <c r="AZ28" s="126"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="68"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="71"/>
+      <c r="AZ28" s="72"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
@@ -4362,44 +4426,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="96"/>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="96"/>
-      <c r="AL29" s="97"/>
-      <c r="AM29" s="104"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="105"/>
-      <c r="AP29" s="105"/>
-      <c r="AQ29" s="105"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="96"/>
-      <c r="AU29" s="107"/>
-      <c r="AV29" s="96"/>
-      <c r="AW29" s="107"/>
-      <c r="AX29" s="124"/>
-      <c r="AY29" s="125"/>
-      <c r="AZ29" s="126"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="68"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="71"/>
+      <c r="AZ29" s="72"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="33">
@@ -4419,44 +4483,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="97"/>
-      <c r="AM30" s="104"/>
-      <c r="AN30" s="105"/>
-      <c r="AO30" s="105"/>
-      <c r="AP30" s="105"/>
-      <c r="AQ30" s="105"/>
-      <c r="AR30" s="105"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="96"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="96"/>
-      <c r="AW30" s="107"/>
-      <c r="AX30" s="124"/>
-      <c r="AY30" s="125"/>
-      <c r="AZ30" s="126"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="94"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="68"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="67"/>
+      <c r="AT30" s="68"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="70"/>
+      <c r="AY30" s="71"/>
+      <c r="AZ30" s="72"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -4476,44 +4540,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="96"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="96"/>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="96"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="105"/>
-      <c r="AO31" s="105"/>
-      <c r="AP31" s="105"/>
-      <c r="AQ31" s="105"/>
-      <c r="AR31" s="105"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="96"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="96"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="124"/>
-      <c r="AY31" s="125"/>
-      <c r="AZ31" s="126"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="68"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="68"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="68"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="70"/>
+      <c r="AY31" s="71"/>
+      <c r="AZ31" s="72"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -4533,44 +4597,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="96"/>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="96"/>
-      <c r="AL32" s="97"/>
-      <c r="AM32" s="104"/>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="105"/>
-      <c r="AQ32" s="105"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="96"/>
-      <c r="AU32" s="107"/>
-      <c r="AV32" s="96"/>
-      <c r="AW32" s="107"/>
-      <c r="AX32" s="124"/>
-      <c r="AY32" s="125"/>
-      <c r="AZ32" s="126"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="68"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="68"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="70"/>
+      <c r="AY32" s="71"/>
+      <c r="AZ32" s="72"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -4590,44 +4654,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="96"/>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="96"/>
-      <c r="AL33" s="97"/>
-      <c r="AM33" s="104"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="105"/>
-      <c r="AQ33" s="105"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="96"/>
-      <c r="AU33" s="107"/>
-      <c r="AV33" s="96"/>
-      <c r="AW33" s="107"/>
-      <c r="AX33" s="124"/>
-      <c r="AY33" s="125"/>
-      <c r="AZ33" s="126"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="68"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="68"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="71"/>
+      <c r="AZ33" s="72"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
@@ -4647,44 +4711,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="96"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="96"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="96"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="96"/>
-      <c r="AL34" s="97"/>
-      <c r="AM34" s="104"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="105"/>
-      <c r="AP34" s="105"/>
-      <c r="AQ34" s="105"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="106"/>
-      <c r="AT34" s="96"/>
-      <c r="AU34" s="107"/>
-      <c r="AV34" s="96"/>
-      <c r="AW34" s="107"/>
-      <c r="AX34" s="124"/>
-      <c r="AY34" s="125"/>
-      <c r="AZ34" s="126"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="92"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="92"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="68"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="68"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="70"/>
+      <c r="AY34" s="71"/>
+      <c r="AZ34" s="72"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
@@ -4704,44 +4768,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="96"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="109"/>
-      <c r="AI35" s="96"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="96"/>
-      <c r="AL35" s="97"/>
-      <c r="AM35" s="104"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="106"/>
-      <c r="AT35" s="96"/>
-      <c r="AU35" s="107"/>
-      <c r="AV35" s="96"/>
-      <c r="AW35" s="107"/>
-      <c r="AX35" s="124"/>
-      <c r="AY35" s="125"/>
-      <c r="AZ35" s="126"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="68"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="68"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="70"/>
+      <c r="AY35" s="71"/>
+      <c r="AZ35" s="72"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="34">
@@ -4761,47 +4825,382 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="115"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
-      <c r="AD36" s="115"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="118"/>
-      <c r="AG36" s="119"/>
-      <c r="AH36" s="120"/>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="116"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="122"/>
-      <c r="AO36" s="122"/>
-      <c r="AP36" s="122"/>
-      <c r="AQ36" s="122"/>
-      <c r="AR36" s="122"/>
-      <c r="AS36" s="123"/>
-      <c r="AT36" s="116"/>
-      <c r="AU36" s="118"/>
-      <c r="AV36" s="116"/>
-      <c r="AW36" s="118"/>
-      <c r="AX36" s="110"/>
-      <c r="AY36" s="111"/>
-      <c r="AZ36" s="112"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="80"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="82"/>
+      <c r="AF36" s="84"/>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="86"/>
+      <c r="AI36" s="82"/>
+      <c r="AJ36" s="83"/>
+      <c r="AK36" s="82"/>
+      <c r="AL36" s="83"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="88"/>
+      <c r="AO36" s="88"/>
+      <c r="AP36" s="88"/>
+      <c r="AQ36" s="88"/>
+      <c r="AR36" s="88"/>
+      <c r="AS36" s="89"/>
+      <c r="AT36" s="82"/>
+      <c r="AU36" s="84"/>
+      <c r="AV36" s="82"/>
+      <c r="AW36" s="84"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="77"/>
+      <c r="AZ36" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="359">
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AX28:AZ28"/>
     <mergeCell ref="AX10:AZ10"/>
     <mergeCell ref="AX9:AZ9"/>
     <mergeCell ref="AM33:AS33"/>
@@ -4826,341 +5225,6 @@
     <mergeCell ref="AV14:AW14"/>
     <mergeCell ref="AV15:AW15"/>
     <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5177,208 +5241,208 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="64" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="64" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="126"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="81" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="81" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="68">
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="127">
         <v>41542</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="64" t="s">
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="64" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="64" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="64" t="s">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="64" t="s">
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="71" t="s">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -5400,14 +5464,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="35" t="s">
         <v>43</v>
       </c>
@@ -5548,7 +5612,9 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
@@ -5602,7 +5668,9 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="5"/>
+      <c r="AK11" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
@@ -5710,7 +5778,9 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="5"/>
+      <c r="AK13" s="58" t="s">
+        <v>154</v>
+      </c>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
@@ -5764,7 +5834,9 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="5"/>
+      <c r="AK14" s="58" t="s">
+        <v>155</v>
+      </c>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
@@ -5872,7 +5944,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="5"/>
+      <c r="AK16" s="58"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
@@ -5926,7 +5998,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="5"/>
+      <c r="AK17" s="58"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
@@ -7079,13 +7151,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ1:AZ1"/>
@@ -7102,6 +7167,13 @@
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7118,7 +7190,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="AK35" sqref="AK35:AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7127,202 +7199,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="64" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="64" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="126"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="81" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="81" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="68">
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="127">
         <v>41542</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="64" t="s">
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="64" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="64" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="64" t="s">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="64" t="s">
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="71" t="s">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -7345,14 +7417,14 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
       <c r="L8" s="35" t="s">
         <v>43</v>
       </c>
@@ -7403,83 +7475,83 @@
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="84" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="84" t="s">
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="84" t="s">
+      <c r="T9" s="103"/>
+      <c r="U9" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="84" t="s">
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="84" t="s">
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="84" t="s">
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="84" t="s">
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="84" t="s">
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="84" t="s">
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="84" t="s">
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="84" t="s">
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="87" t="s">
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="89"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="64"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
@@ -7501,16 +7573,16 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="133" t="s">
+      <c r="O10" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="96" t="s">
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="97"/>
+      <c r="T10" s="73"/>
       <c r="U10" s="136" t="s">
         <v>78</v>
       </c>
@@ -7525,40 +7597,40 @@
       <c r="AB10" s="137"/>
       <c r="AC10" s="137"/>
       <c r="AD10" s="138"/>
-      <c r="AE10" s="90" t="s">
+      <c r="AE10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="96" t="s">
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="157">
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="134">
         <v>150</v>
       </c>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="157" t="s">
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="90" t="s">
+      <c r="AL10" s="135"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="96" t="s">
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="159"/>
-      <c r="AY10" s="160"/>
-      <c r="AZ10" s="161"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="139"/>
+      <c r="AY10" s="140"/>
+      <c r="AZ10" s="141"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
@@ -7580,16 +7652,16 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="133" t="s">
+      <c r="O11" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="96" t="s">
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T11" s="97"/>
+      <c r="T11" s="73"/>
       <c r="U11" s="136" t="s">
         <v>78</v>
       </c>
@@ -7604,40 +7676,40 @@
       <c r="AB11" s="137"/>
       <c r="AC11" s="137"/>
       <c r="AD11" s="138"/>
-      <c r="AE11" s="96" t="s">
+      <c r="AE11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="96" t="s">
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="96">
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="68">
         <v>150</v>
       </c>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="96" t="s">
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="105"/>
-      <c r="AP11" s="105"/>
-      <c r="AQ11" s="105"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="96" t="s">
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="96" t="s">
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="125"/>
-      <c r="AZ11" s="126"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="72"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
@@ -7659,16 +7731,16 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="133" t="s">
+      <c r="O12" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="96" t="s">
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T12" s="97"/>
+      <c r="T12" s="73"/>
       <c r="U12" s="136" t="s">
         <v>78</v>
       </c>
@@ -7683,40 +7755,40 @@
       <c r="AB12" s="137"/>
       <c r="AC12" s="137"/>
       <c r="AD12" s="138"/>
-      <c r="AE12" s="96" t="s">
+      <c r="AE12" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="96" t="s">
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="96">
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="68">
         <v>40</v>
       </c>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="96" t="s">
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="104"/>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="105"/>
-      <c r="AQ12" s="105"/>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="96" t="s">
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="96" t="s">
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="125"/>
-      <c r="AZ12" s="126"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="72"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
@@ -7738,16 +7810,16 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="133" t="s">
+      <c r="O13" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="96" t="s">
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="97"/>
+      <c r="T13" s="73"/>
       <c r="U13" s="136" t="s">
         <v>90</v>
       </c>
@@ -7762,40 +7834,40 @@
       <c r="AB13" s="137"/>
       <c r="AC13" s="137"/>
       <c r="AD13" s="138"/>
-      <c r="AE13" s="96" t="s">
+      <c r="AE13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="96" t="s">
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="96">
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="68">
         <v>14</v>
       </c>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="96" t="s">
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="105"/>
-      <c r="AQ13" s="105"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="96" t="s">
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="96" t="s">
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="124"/>
-      <c r="AY13" s="125"/>
-      <c r="AZ13" s="126"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="72"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
@@ -7817,16 +7889,16 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="133" t="s">
+      <c r="O14" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="96" t="s">
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T14" s="97"/>
+      <c r="T14" s="73"/>
       <c r="U14" s="136" t="s">
         <v>78</v>
       </c>
@@ -7841,40 +7913,40 @@
       <c r="AB14" s="137"/>
       <c r="AC14" s="137"/>
       <c r="AD14" s="138"/>
-      <c r="AE14" s="96" t="s">
+      <c r="AE14" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="96" t="s">
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="96">
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="68">
         <v>80</v>
       </c>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="96" t="s">
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="105"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="96" t="s">
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="96" t="s">
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="126"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="72"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
@@ -7896,16 +7968,16 @@
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
       <c r="N15" s="53"/>
-      <c r="O15" s="133" t="s">
+      <c r="O15" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="96" t="s">
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T15" s="97"/>
+      <c r="T15" s="73"/>
       <c r="U15" s="136" t="s">
         <v>78</v>
       </c>
@@ -7920,40 +7992,40 @@
       <c r="AB15" s="137"/>
       <c r="AC15" s="137"/>
       <c r="AD15" s="138"/>
-      <c r="AE15" s="96" t="s">
+      <c r="AE15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="96">
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="68">
         <v>9</v>
       </c>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="96">
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="68">
         <v>4</v>
       </c>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="96" t="s">
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="96" t="s">
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="96" t="s">
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW15" s="107"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="126"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="72"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
@@ -7975,16 +8047,16 @@
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="133" t="s">
+      <c r="O16" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="96" t="s">
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T16" s="97"/>
+      <c r="T16" s="73"/>
       <c r="U16" s="136" t="s">
         <v>78</v>
       </c>
@@ -7999,40 +8071,40 @@
       <c r="AB16" s="137"/>
       <c r="AC16" s="137"/>
       <c r="AD16" s="138"/>
-      <c r="AE16" s="96" t="s">
+      <c r="AE16" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="96">
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="68">
         <v>9</v>
       </c>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="96">
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="68">
         <v>2</v>
       </c>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="96" t="s">
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="105"/>
-      <c r="AP16" s="105"/>
-      <c r="AQ16" s="105"/>
-      <c r="AR16" s="105"/>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="96" t="s">
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="96" t="s">
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW16" s="107"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="126"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="72"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
@@ -8054,16 +8126,16 @@
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
       <c r="N17" s="53"/>
-      <c r="O17" s="133" t="s">
+      <c r="O17" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="96" t="s">
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T17" s="97"/>
+      <c r="T17" s="73"/>
       <c r="U17" s="136" t="s">
         <v>78</v>
       </c>
@@ -8078,40 +8150,40 @@
       <c r="AB17" s="137"/>
       <c r="AC17" s="137"/>
       <c r="AD17" s="138"/>
-      <c r="AE17" s="96" t="s">
+      <c r="AE17" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="96">
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="68">
         <v>9</v>
       </c>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="96">
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="68">
         <v>2</v>
       </c>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="96" t="s">
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
-      <c r="AQ17" s="105"/>
-      <c r="AR17" s="105"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="96" t="s">
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="67"/>
+      <c r="AT17" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU17" s="97"/>
-      <c r="AV17" s="96" t="s">
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="126"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="72"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
@@ -8133,16 +8205,16 @@
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
       <c r="N18" s="53"/>
-      <c r="O18" s="133" t="s">
+      <c r="O18" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="96" t="s">
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T18" s="97"/>
+      <c r="T18" s="73"/>
       <c r="U18" s="136" t="s">
         <v>78</v>
       </c>
@@ -8157,40 +8229,40 @@
       <c r="AB18" s="137"/>
       <c r="AC18" s="137"/>
       <c r="AD18" s="138"/>
-      <c r="AE18" s="96" t="s">
+      <c r="AE18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="96">
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="68">
         <v>9</v>
       </c>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="96">
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="68">
         <v>4</v>
       </c>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="96" t="s">
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="105"/>
-      <c r="AQ18" s="105"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="96" t="s">
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU18" s="97"/>
-      <c r="AV18" s="96" t="s">
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="124"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="126"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="72"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
@@ -8212,16 +8284,16 @@
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
       <c r="N19" s="53"/>
-      <c r="O19" s="133" t="s">
+      <c r="O19" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="134"/>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="96" t="s">
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="97"/>
+      <c r="T19" s="73"/>
       <c r="U19" s="136" t="s">
         <v>78</v>
       </c>
@@ -8236,40 +8308,40 @@
       <c r="AB19" s="137"/>
       <c r="AC19" s="137"/>
       <c r="AD19" s="138"/>
-      <c r="AE19" s="96" t="s">
+      <c r="AE19" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="96">
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="68">
         <v>9</v>
       </c>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="96">
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="68">
         <v>2</v>
       </c>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="96" t="s">
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="105"/>
-      <c r="AP19" s="105"/>
-      <c r="AQ19" s="105"/>
-      <c r="AR19" s="105"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="96" t="s">
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU19" s="97"/>
-      <c r="AV19" s="96" t="s">
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW19" s="107"/>
-      <c r="AX19" s="124"/>
-      <c r="AY19" s="125"/>
-      <c r="AZ19" s="126"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="72"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
@@ -8291,16 +8363,16 @@
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
       <c r="N20" s="53"/>
-      <c r="O20" s="133" t="s">
+      <c r="O20" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="96" t="s">
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T20" s="97"/>
+      <c r="T20" s="73"/>
       <c r="U20" s="136" t="s">
         <v>78</v>
       </c>
@@ -8315,40 +8387,40 @@
       <c r="AB20" s="137"/>
       <c r="AC20" s="137"/>
       <c r="AD20" s="138"/>
-      <c r="AE20" s="96" t="s">
+      <c r="AE20" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="96">
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="68">
         <v>9</v>
       </c>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="96">
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="68">
         <v>2</v>
       </c>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="96" t="s">
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
-      <c r="AQ20" s="105"/>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="96" t="s">
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="96" t="s">
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="124"/>
-      <c r="AY20" s="125"/>
-      <c r="AZ20" s="126"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="72"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
@@ -8370,16 +8442,16 @@
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
       <c r="N21" s="53"/>
-      <c r="O21" s="133" t="s">
+      <c r="O21" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="96" t="s">
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T21" s="97"/>
+      <c r="T21" s="73"/>
       <c r="U21" s="136" t="s">
         <v>90</v>
       </c>
@@ -8394,40 +8466,40 @@
       <c r="AB21" s="137"/>
       <c r="AC21" s="137"/>
       <c r="AD21" s="138"/>
-      <c r="AE21" s="96" t="s">
+      <c r="AE21" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="96" t="s">
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="96">
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="68">
         <v>40</v>
       </c>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="96" t="s">
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="105"/>
-      <c r="AP21" s="105"/>
-      <c r="AQ21" s="105"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="96" t="s">
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="67"/>
+      <c r="AT21" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="96" t="s">
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="AW21" s="97"/>
-      <c r="AX21" s="124"/>
-      <c r="AY21" s="125"/>
-      <c r="AZ21" s="126"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="71"/>
+      <c r="AZ21" s="72"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
@@ -8449,16 +8521,16 @@
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
       <c r="N22" s="53"/>
-      <c r="O22" s="133" t="s">
+      <c r="O22" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="96" t="s">
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T22" s="97"/>
+      <c r="T22" s="73"/>
       <c r="U22" s="136" t="s">
         <v>90</v>
       </c>
@@ -8473,40 +8545,40 @@
       <c r="AB22" s="137"/>
       <c r="AC22" s="137"/>
       <c r="AD22" s="138"/>
-      <c r="AE22" s="96" t="s">
+      <c r="AE22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="96" t="s">
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="96">
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="68">
         <v>80</v>
       </c>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="96" t="s">
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="105"/>
-      <c r="AP22" s="105"/>
-      <c r="AQ22" s="105"/>
-      <c r="AR22" s="105"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="96" t="s">
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="96" t="s">
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="125"/>
-      <c r="AZ22" s="126"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="72"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
@@ -8528,16 +8600,16 @@
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="53"/>
-      <c r="O23" s="133" t="s">
+      <c r="O23" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="96" t="s">
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T23" s="97"/>
+      <c r="T23" s="73"/>
       <c r="U23" s="136" t="s">
         <v>78</v>
       </c>
@@ -8552,40 +8624,40 @@
       <c r="AB23" s="137"/>
       <c r="AC23" s="137"/>
       <c r="AD23" s="138"/>
-      <c r="AE23" s="96" t="s">
+      <c r="AE23" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="96" t="s">
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="96">
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="68">
         <v>10</v>
       </c>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="96" t="s">
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="105"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
-      <c r="AQ23" s="105"/>
-      <c r="AR23" s="105"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="96" t="s">
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU23" s="97"/>
-      <c r="AV23" s="96" t="s">
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AW23" s="107"/>
-      <c r="AX23" s="124"/>
-      <c r="AY23" s="125"/>
-      <c r="AZ23" s="126"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="72"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
@@ -8607,16 +8679,16 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="133" t="s">
+      <c r="O24" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="96" t="s">
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="T24" s="97"/>
+      <c r="T24" s="73"/>
       <c r="U24" s="136" t="s">
         <v>90</v>
       </c>
@@ -8631,40 +8703,40 @@
       <c r="AB24" s="137"/>
       <c r="AC24" s="137"/>
       <c r="AD24" s="138"/>
-      <c r="AE24" s="96" t="s">
+      <c r="AE24" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="96" t="s">
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="96" t="s">
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="96" t="s">
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="105"/>
-      <c r="AO24" s="105"/>
-      <c r="AP24" s="105"/>
-      <c r="AQ24" s="105"/>
-      <c r="AR24" s="105"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="96" t="s">
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU24" s="97"/>
-      <c r="AV24" s="96" t="s">
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="AW24" s="97"/>
-      <c r="AX24" s="148"/>
-      <c r="AY24" s="125"/>
-      <c r="AZ24" s="126"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="153"/>
+      <c r="AY24" s="71"/>
+      <c r="AZ24" s="72"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
@@ -8686,44 +8758,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="133"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="97"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="105"/>
-      <c r="AP25" s="105"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="97"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="97"/>
-      <c r="AX25" s="124"/>
-      <c r="AY25" s="125"/>
-      <c r="AZ25" s="126"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="143"/>
+      <c r="X25" s="143"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="142"/>
+      <c r="AA25" s="143"/>
+      <c r="AB25" s="143"/>
+      <c r="AC25" s="143"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="71"/>
+      <c r="AZ25" s="72"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
@@ -8745,16 +8817,16 @@
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
       <c r="N26" s="45"/>
-      <c r="O26" s="133" t="s">
+      <c r="O26" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="96" t="s">
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="T26" s="97"/>
+      <c r="T26" s="73"/>
       <c r="U26" s="136" t="s">
         <v>77</v>
       </c>
@@ -8769,40 +8841,40 @@
       <c r="AB26" s="137"/>
       <c r="AC26" s="137"/>
       <c r="AD26" s="138"/>
-      <c r="AE26" s="96" t="s">
+      <c r="AE26" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="96" t="s">
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="96" t="s">
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="96" t="s">
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AL26" s="97"/>
-      <c r="AM26" s="104"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="96" t="s">
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU26" s="97"/>
-      <c r="AV26" s="96" t="s">
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW26" s="97"/>
-      <c r="AX26" s="124"/>
-      <c r="AY26" s="125"/>
-      <c r="AZ26" s="126"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="71"/>
+      <c r="AZ26" s="72"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
@@ -8824,64 +8896,64 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="133" t="s">
+      <c r="O27" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="96" t="s">
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="T27" s="97"/>
-      <c r="U27" s="133" t="s">
+      <c r="T27" s="73"/>
+      <c r="U27" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="133" t="s">
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="144"/>
+      <c r="Z27" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="96" t="s">
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143"/>
+      <c r="AC27" s="143"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="96" t="s">
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AH27" s="97"/>
-      <c r="AI27" s="96">
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="68">
         <v>40</v>
       </c>
-      <c r="AJ27" s="97"/>
-      <c r="AK27" s="96" t="s">
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL27" s="97"/>
-      <c r="AM27" s="104"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="96" t="s">
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU27" s="97"/>
-      <c r="AV27" s="96" t="s">
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW27" s="97"/>
-      <c r="AX27" s="124"/>
-      <c r="AY27" s="125"/>
-      <c r="AZ27" s="126"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="71"/>
+      <c r="AZ27" s="72"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
@@ -8903,64 +8975,64 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="133" t="s">
+      <c r="O28" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="96" t="s">
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="T28" s="97"/>
-      <c r="U28" s="133" t="s">
+      <c r="T28" s="73"/>
+      <c r="U28" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="133" t="s">
+      <c r="V28" s="143"/>
+      <c r="W28" s="143"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="96" t="s">
+      <c r="AA28" s="143"/>
+      <c r="AB28" s="143"/>
+      <c r="AC28" s="143"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="96" t="s">
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="96">
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="68">
         <v>80</v>
       </c>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="96" t="s">
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="104"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="105"/>
-      <c r="AQ28" s="105"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="96" t="s">
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU28" s="97"/>
-      <c r="AV28" s="96" t="s">
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW28" s="97"/>
-      <c r="AX28" s="124"/>
-      <c r="AY28" s="125"/>
-      <c r="AZ28" s="126"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="71"/>
+      <c r="AZ28" s="72"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
@@ -8982,64 +9054,64 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="133" t="s">
+      <c r="O29" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="96" t="s">
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="97"/>
-      <c r="U29" s="133" t="s">
+      <c r="T29" s="73"/>
+      <c r="U29" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="133" t="s">
+      <c r="V29" s="143"/>
+      <c r="W29" s="143"/>
+      <c r="X29" s="143"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="96" t="s">
+      <c r="AA29" s="143"/>
+      <c r="AB29" s="143"/>
+      <c r="AC29" s="143"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="96" t="s">
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="96">
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="68">
         <v>40</v>
       </c>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="96" t="s">
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL29" s="97"/>
-      <c r="AM29" s="104"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="105"/>
-      <c r="AP29" s="105"/>
-      <c r="AQ29" s="105"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="96" t="s">
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU29" s="97"/>
-      <c r="AV29" s="96" t="s">
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW29" s="97"/>
-      <c r="AX29" s="124"/>
-      <c r="AY29" s="125"/>
-      <c r="AZ29" s="126"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="71"/>
+      <c r="AZ29" s="72"/>
     </row>
     <row r="30" spans="1:52" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="46">
@@ -9061,66 +9133,66 @@
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
       <c r="N30" s="49"/>
-      <c r="O30" s="133" t="s">
+      <c r="O30" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="149" t="s">
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="T30" s="150"/>
-      <c r="U30" s="154" t="s">
+      <c r="T30" s="146"/>
+      <c r="U30" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="133" t="s">
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="149" t="s">
+      <c r="AA30" s="143"/>
+      <c r="AB30" s="143"/>
+      <c r="AC30" s="143"/>
+      <c r="AD30" s="144"/>
+      <c r="AE30" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="96" t="s">
+      <c r="AF30" s="146"/>
+      <c r="AG30" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="96">
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="68">
         <v>8</v>
       </c>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="149" t="s">
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="AL30" s="150"/>
-      <c r="AM30" s="151" t="s">
+      <c r="AL30" s="146"/>
+      <c r="AM30" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="AN30" s="152"/>
-      <c r="AO30" s="152"/>
-      <c r="AP30" s="152"/>
-      <c r="AQ30" s="152"/>
-      <c r="AR30" s="152"/>
-      <c r="AS30" s="153"/>
-      <c r="AT30" s="149" t="s">
+      <c r="AN30" s="151"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
+      <c r="AQ30" s="151"/>
+      <c r="AR30" s="151"/>
+      <c r="AS30" s="152"/>
+      <c r="AT30" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="149" t="s">
+      <c r="AU30" s="146"/>
+      <c r="AV30" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="AW30" s="150"/>
-      <c r="AX30" s="145"/>
-      <c r="AY30" s="146"/>
-      <c r="AZ30" s="147"/>
+      <c r="AW30" s="146"/>
+      <c r="AX30" s="154"/>
+      <c r="AY30" s="155"/>
+      <c r="AZ30" s="156"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -9142,64 +9214,64 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="133" t="s">
+      <c r="O31" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="96" t="s">
+      <c r="P31" s="143"/>
+      <c r="Q31" s="143"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="97"/>
-      <c r="U31" s="133" t="s">
+      <c r="T31" s="73"/>
+      <c r="U31" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="133" t="s">
+      <c r="V31" s="143"/>
+      <c r="W31" s="143"/>
+      <c r="X31" s="143"/>
+      <c r="Y31" s="144"/>
+      <c r="Z31" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="96" t="s">
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="143"/>
+      <c r="AD31" s="144"/>
+      <c r="AE31" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="96" t="s">
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="96">
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="68">
         <v>80</v>
       </c>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="96" t="s">
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="105"/>
-      <c r="AO31" s="105"/>
-      <c r="AP31" s="105"/>
-      <c r="AQ31" s="105"/>
-      <c r="AR31" s="105"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="96" t="s">
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU31" s="97"/>
-      <c r="AV31" s="96" t="s">
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW31" s="97"/>
-      <c r="AX31" s="124"/>
-      <c r="AY31" s="125"/>
-      <c r="AZ31" s="126"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="70"/>
+      <c r="AY31" s="71"/>
+      <c r="AZ31" s="72"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -9221,66 +9293,66 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="133" t="s">
+      <c r="O32" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="96" t="s">
+      <c r="P32" s="143"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="97"/>
-      <c r="U32" s="133" t="s">
+      <c r="T32" s="73"/>
+      <c r="U32" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="133" t="s">
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="144"/>
+      <c r="Z32" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="96" t="s">
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="144"/>
+      <c r="AE32" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="96" t="s">
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="AH32" s="97"/>
-      <c r="AI32" s="96">
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="68">
         <v>14</v>
       </c>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="96" t="s">
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL32" s="97"/>
-      <c r="AM32" s="104" t="s">
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="105"/>
-      <c r="AQ32" s="105"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="96" t="s">
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU32" s="97"/>
-      <c r="AV32" s="96" t="s">
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW32" s="97"/>
-      <c r="AX32" s="148"/>
-      <c r="AY32" s="125"/>
-      <c r="AZ32" s="126"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="153"/>
+      <c r="AY32" s="71"/>
+      <c r="AZ32" s="72"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
@@ -9302,64 +9374,64 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="133" t="s">
+      <c r="O33" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="96" t="s">
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T33" s="97"/>
-      <c r="U33" s="133" t="s">
+      <c r="T33" s="73"/>
+      <c r="U33" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="133" t="s">
+      <c r="V33" s="143"/>
+      <c r="W33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="144"/>
+      <c r="Z33" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="96" t="s">
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="96" t="s">
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="96">
-        <v>10</v>
-      </c>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="96" t="s">
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="68">
+        <v>100</v>
+      </c>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AL33" s="97"/>
-      <c r="AM33" s="104"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="105"/>
-      <c r="AQ33" s="105"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="96" t="s">
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU33" s="97"/>
-      <c r="AV33" s="96" t="s">
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW33" s="97"/>
-      <c r="AX33" s="124"/>
-      <c r="AY33" s="125"/>
-      <c r="AZ33" s="126"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="71"/>
+      <c r="AZ33" s="72"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
@@ -9381,16 +9453,16 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="133" t="s">
+      <c r="O34" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="134"/>
-      <c r="Q34" s="134"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="96" t="s">
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="T34" s="97"/>
+      <c r="T34" s="73"/>
       <c r="U34" s="136" t="s">
         <v>77</v>
       </c>
@@ -9405,40 +9477,40 @@
       <c r="AB34" s="137"/>
       <c r="AC34" s="137"/>
       <c r="AD34" s="138"/>
-      <c r="AE34" s="96" t="s">
+      <c r="AE34" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="96" t="s">
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="96" t="s">
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="96" t="s">
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AL34" s="97"/>
-      <c r="AM34" s="104"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="105"/>
-      <c r="AP34" s="105"/>
-      <c r="AQ34" s="105"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="106"/>
-      <c r="AT34" s="96" t="s">
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU34" s="97"/>
-      <c r="AV34" s="96" t="s">
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW34" s="97"/>
-      <c r="AX34" s="124"/>
-      <c r="AY34" s="125"/>
-      <c r="AZ34" s="126"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="70"/>
+      <c r="AY34" s="71"/>
+      <c r="AZ34" s="72"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
@@ -9460,64 +9532,64 @@
       <c r="L35" s="44"/>
       <c r="M35" s="44"/>
       <c r="N35" s="45"/>
-      <c r="O35" s="133" t="s">
+      <c r="O35" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="P35" s="134"/>
-      <c r="Q35" s="134"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="96" t="s">
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T35" s="97"/>
-      <c r="U35" s="133" t="s">
+      <c r="T35" s="73"/>
+      <c r="U35" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="V35" s="134"/>
-      <c r="W35" s="134"/>
-      <c r="X35" s="134"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="133" t="s">
+      <c r="V35" s="143"/>
+      <c r="W35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="144"/>
+      <c r="Z35" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="134"/>
-      <c r="AC35" s="134"/>
-      <c r="AD35" s="135"/>
-      <c r="AE35" s="96" t="s">
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="96" t="s">
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="96">
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="68">
         <v>14</v>
       </c>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="96" t="s">
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AL35" s="97"/>
-      <c r="AM35" s="104"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="106"/>
-      <c r="AT35" s="96" t="s">
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU35" s="97"/>
-      <c r="AV35" s="96" t="s">
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW35" s="97"/>
-      <c r="AX35" s="124"/>
-      <c r="AY35" s="125"/>
-      <c r="AZ35" s="126"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="70"/>
+      <c r="AY35" s="71"/>
+      <c r="AZ35" s="72"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="33">
@@ -9539,64 +9611,64 @@
       <c r="L36" s="56"/>
       <c r="M36" s="56"/>
       <c r="N36" s="57"/>
-      <c r="O36" s="133" t="s">
+      <c r="O36" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="134"/>
-      <c r="Q36" s="134"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="96" t="s">
+      <c r="P36" s="143"/>
+      <c r="Q36" s="143"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="T36" s="97"/>
-      <c r="U36" s="133" t="s">
+      <c r="T36" s="73"/>
+      <c r="U36" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="134"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="133" t="s">
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="144"/>
+      <c r="Z36" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="AA36" s="134"/>
-      <c r="AB36" s="134"/>
-      <c r="AC36" s="134"/>
-      <c r="AD36" s="135"/>
-      <c r="AE36" s="96" t="s">
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="144"/>
+      <c r="AE36" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="96" t="s">
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="96">
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="68">
         <v>8</v>
       </c>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="96" t="s">
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="104"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="106"/>
-      <c r="AT36" s="96" t="s">
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AU36" s="97"/>
-      <c r="AV36" s="96" t="s">
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AW36" s="97"/>
-      <c r="AX36" s="124"/>
-      <c r="AY36" s="125"/>
-      <c r="AZ36" s="126"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="70"/>
+      <c r="AY36" s="71"/>
+      <c r="AZ36" s="72"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
@@ -9618,16 +9690,16 @@
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="40"/>
-      <c r="O37" s="93" t="s">
+      <c r="O37" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="96" t="s">
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="T37" s="97"/>
+      <c r="T37" s="73"/>
       <c r="U37" s="136" t="s">
         <v>90</v>
       </c>
@@ -9642,36 +9714,36 @@
       <c r="AB37" s="137"/>
       <c r="AC37" s="137"/>
       <c r="AD37" s="138"/>
-      <c r="AE37" s="96" t="s">
+      <c r="AE37" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="96" t="s">
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="96" t="s">
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" s="96" t="s">
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AL37" s="97"/>
-      <c r="AM37" s="104"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="105"/>
-      <c r="AP37" s="105"/>
-      <c r="AQ37" s="105"/>
-      <c r="AR37" s="105"/>
-      <c r="AS37" s="106"/>
-      <c r="AT37" s="96"/>
-      <c r="AU37" s="107"/>
-      <c r="AV37" s="96"/>
-      <c r="AW37" s="107"/>
-      <c r="AX37" s="124"/>
-      <c r="AY37" s="125"/>
-      <c r="AZ37" s="126"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="70"/>
+      <c r="AY37" s="71"/>
+      <c r="AZ37" s="72"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="34">
@@ -9691,89 +9763,365 @@
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
       <c r="N38" s="27"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="142"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="144"/>
-      <c r="Z38" s="142"/>
-      <c r="AA38" s="143"/>
-      <c r="AB38" s="143"/>
-      <c r="AC38" s="143"/>
-      <c r="AD38" s="144"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="118"/>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="120"/>
-      <c r="AI38" s="116"/>
-      <c r="AJ38" s="117"/>
-      <c r="AK38" s="116"/>
-      <c r="AL38" s="117"/>
-      <c r="AM38" s="121"/>
-      <c r="AN38" s="122"/>
-      <c r="AO38" s="122"/>
-      <c r="AP38" s="122"/>
-      <c r="AQ38" s="122"/>
-      <c r="AR38" s="122"/>
-      <c r="AS38" s="123"/>
-      <c r="AT38" s="116"/>
-      <c r="AU38" s="118"/>
-      <c r="AV38" s="116"/>
-      <c r="AW38" s="118"/>
-      <c r="AX38" s="139"/>
-      <c r="AY38" s="140"/>
-      <c r="AZ38" s="141"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="160"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="162"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="162"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="84"/>
+      <c r="AG38" s="85"/>
+      <c r="AH38" s="86"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="83"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="83"/>
+      <c r="AM38" s="87"/>
+      <c r="AN38" s="88"/>
+      <c r="AO38" s="88"/>
+      <c r="AP38" s="88"/>
+      <c r="AQ38" s="88"/>
+      <c r="AR38" s="88"/>
+      <c r="AS38" s="89"/>
+      <c r="AT38" s="82"/>
+      <c r="AU38" s="84"/>
+      <c r="AV38" s="82"/>
+      <c r="AW38" s="84"/>
+      <c r="AX38" s="157"/>
+      <c r="AY38" s="158"/>
+      <c r="AZ38" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="384">
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="AV38:AW38"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:Y38"/>
+    <mergeCell ref="Z38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AS38"/>
+    <mergeCell ref="AT38:AU38"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="AV37:AW37"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="AT37:AU37"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AS37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AT12:AU12"/>
     <mergeCell ref="AM13:AS13"/>
     <mergeCell ref="AT13:AU13"/>
@@ -9798,324 +10146,48 @@
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AT37:AU37"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="Z37:AD37"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AS37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV38:AW38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:Y38"/>
-    <mergeCell ref="Z38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AS38"/>
-    <mergeCell ref="AT38:AU38"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="AV37:AW37"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="F8:K8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
